--- a/consulta.xlsx
+++ b/consulta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikaelfideles\Documents\RG1NOT0340\myprojects\consulta_cnpj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ffd5046c530c3e9/Documentos/consulta_cnpj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EFB635-9E5D-46A5-B0EA-A9AA7D5E6BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1FB5EE1F-A6DA-4F0C-B2F6-9F6E1AFA591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E711F66D-0EA9-4D3D-8220-F96977CB1C07}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BCCB3180-6F38-42DB-A297-4123D073B6A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCCB3180-6F38-42DB-A297-4123D073B6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NUM_CNPJ</t>
   </si>
   <si>
-    <t>01811362000559</t>
+    <t>33657248000189</t>
+  </si>
+  <si>
+    <t>90400888000142</t>
+  </si>
+  <si>
+    <t>60746948000112</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +81,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -90,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,17 +119,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E06CF417-76F2-46E9-BEB3-31AE24759724}" name="Tabela1" displayName="Tabela1" ref="A1:A2" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A2" xr:uid="{5F287D84-3D12-40F9-94C8-F7C28EA0F3F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E06CF417-76F2-46E9-BEB3-31AE24759724}" name="Tabela1" displayName="Tabela1" ref="A1:A4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A4" xr:uid="{5F287D84-3D12-40F9-94C8-F7C28EA0F3F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9484D0C8-8A82-47C7-BE46-1E5721F4AF10}" name="NUM_CNPJ" dataDxfId="0"/>
   </tableColumns>
@@ -536,25 +564,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E097A199-7DA9-4F7E-87F7-A80599721ED2}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
